--- a/instructor/00_indicaciones/General.xlsx
+++ b/instructor/00_indicaciones/General.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022\python\01\indicaciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022\python\0101\GitHub\python_2022_0101\instructor\00_indicaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CCF186-8398-4C16-96D4-DC1DB41BD97F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1D8802-5125-4605-81B1-C2BB89DA989A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1365" yWindow="2250" windowWidth="15510" windowHeight="7875" firstSheet="9" activeTab="12" xr2:uid="{94F9A276-00BC-4C43-80B3-D91E56A8379F}"/>
+    <workbookView xWindow="540" yWindow="1470" windowWidth="15360" windowHeight="7875" firstSheet="8" activeTab="12" xr2:uid="{94F9A276-00BC-4C43-80B3-D91E56A8379F}"/>
   </bookViews>
   <sheets>
     <sheet name="Basico" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="230">
   <si>
     <t>Python</t>
   </si>
@@ -651,20 +651,101 @@
     <t>factura2</t>
   </si>
   <si>
-    <t>FACTURAS</t>
-  </si>
-  <si>
     <t>Teclado</t>
   </si>
   <si>
     <t>facturax</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <t>Flask (Web)</t>
+  </si>
+  <si>
+    <t>APIs (Json)</t>
+  </si>
+  <si>
+    <t>Django (Web)</t>
+  </si>
+  <si>
+    <t>APIs(Json)</t>
+  </si>
+  <si>
+    <t>FronEnd</t>
+  </si>
+  <si>
+    <t>Vue (Interfaz G)</t>
+  </si>
+  <si>
+    <t>React</t>
+  </si>
+  <si>
+    <t>Html</t>
+  </si>
+  <si>
+    <t>Css</t>
+  </si>
+  <si>
+    <t>Html,Css</t>
+  </si>
+  <si>
+    <t>Javascritpt</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>(Colección)</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Set,Diccionario</t>
+  </si>
+  <si>
+    <t>factura3</t>
+  </si>
+  <si>
+    <t>facturas</t>
+  </si>
+  <si>
+    <t>ENFOQUES PROGRAMACION</t>
+  </si>
+  <si>
+    <t>2) Programacion Orientada Objetos</t>
+  </si>
+  <si>
+    <t>Clases, Objetos</t>
+  </si>
+  <si>
+    <t>1) Programacion Estructurada</t>
+  </si>
+  <si>
+    <t>Imperativa</t>
+  </si>
+  <si>
+    <t>COMPLEMENTARIOS</t>
+  </si>
+  <si>
+    <t>3) Programacion Funcional</t>
+  </si>
+  <si>
+    <t>Declarativo</t>
+  </si>
+  <si>
+    <t>MEZCLA</t>
+  </si>
+  <si>
+    <t>IVA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,8 +769,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -744,6 +839,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -773,7 +874,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -794,6 +895,15 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1109,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8CBDE3-B6E1-4DA5-AAF7-7648120A1CD2}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1231,8 @@
     <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1312,28 +1423,61 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D18" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>223</v>
+      </c>
+      <c r="I20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="14" t="s">
         <v>130</v>
       </c>
       <c r="E21" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>221</v>
+      </c>
+      <c r="I21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="H22" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="I22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D24" s="14" t="s">
         <v>131</v>
       </c>
@@ -1341,12 +1485,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>133</v>
       </c>
@@ -2004,19 +2148,20 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD604CB8-1C2B-4FA0-8651-2EB1B3A26933}">
-  <dimension ref="A2:D11"/>
+  <dimension ref="A2:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2027,12 +2172,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>13</v>
       </c>
@@ -2040,7 +2185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2054,7 +2199,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>110</v>
       </c>
@@ -2062,7 +2207,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2076,7 +2221,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -2090,7 +2235,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -2104,7 +2249,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -2113,6 +2258,66 @@
       </c>
       <c r="C11" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2122,20 +2327,21 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC269C0-0B94-42E6-86B9-E001214CD993}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="7.7109375" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" customWidth="1"/>
+    <col min="12" max="12" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>163</v>
       </c>
@@ -2148,23 +2354,23 @@
       <c r="D1" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>195</v>
       </c>
@@ -2178,48 +2384,63 @@
         <v>196</v>
       </c>
       <c r="F2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2" t="s">
         <v>180</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>181</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>166</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>157</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="F3" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="15">
+        <v>3</v>
+      </c>
+      <c r="C3" s="15">
+        <v>9</v>
+      </c>
+      <c r="D3" s="15">
+        <f>B3*C3</f>
+        <v>27</v>
+      </c>
+      <c r="F3" s="20">
+        <v>0.12</v>
+      </c>
+      <c r="G3" t="s">
         <v>182</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>157</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>167</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F4" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
         <v>183</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>197</v>
       </c>
@@ -2236,21 +2457,21 @@
       <c r="E5" t="s">
         <v>198</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K6" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B7" s="15">
         <v>5</v>
@@ -2259,35 +2480,45 @@
         <v>8</v>
       </c>
       <c r="D7" s="15">
+        <f>B7*C7</f>
         <v>40</v>
       </c>
       <c r="E7" t="s">
         <v>199</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>184</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
         <v>178</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>200</v>
-      </c>
-      <c r="F9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" t="s">
+        <v>217</v>
+      </c>
+      <c r="G9" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>197</v>
       </c>
@@ -2302,24 +2533,27 @@
         <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F10" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" t="s">
         <v>157</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>186</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B11" s="15">
         <v>5</v>
@@ -2328,64 +2562,90 @@
         <v>8</v>
       </c>
       <c r="D11" s="15">
+        <f>B11*C11</f>
         <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>202</v>
-      </c>
-      <c r="G11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" t="s">
+        <v>199</v>
+      </c>
+      <c r="H11" t="s">
         <v>187</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="15">
+        <v>5</v>
+      </c>
+      <c r="C12" s="15">
+        <v>8</v>
+      </c>
+      <c r="D12" s="15">
+        <f>B12*C12</f>
+        <v>40</v>
+      </c>
       <c r="E12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
         <v>159</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F14" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
         <v>189</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>192</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
         <v>190</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F16" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
         <v>191</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>194</v>
       </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="18"/>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/instructor/00_indicaciones/General.xlsx
+++ b/instructor/00_indicaciones/General.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022\python\0101\GitHub\python_2022_0101\instructor\00_indicaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1D8802-5125-4605-81B1-C2BB89DA989A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B4F96A-C376-4C2C-9AF2-4098DA3BAF05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="1470" windowWidth="15360" windowHeight="7875" firstSheet="8" activeTab="12" xr2:uid="{94F9A276-00BC-4C43-80B3-D91E56A8379F}"/>
+    <workbookView xWindow="15" yWindow="1545" windowWidth="15360" windowHeight="7875" firstSheet="8" activeTab="11" xr2:uid="{94F9A276-00BC-4C43-80B3-D91E56A8379F}"/>
   </bookViews>
   <sheets>
     <sheet name="Basico" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="234">
   <si>
     <t>Python</t>
   </si>
@@ -739,6 +739,18 @@
   </si>
   <si>
     <t>IVA</t>
+  </si>
+  <si>
+    <t>Arrow Function</t>
+  </si>
+  <si>
+    <t>Spread</t>
+  </si>
+  <si>
+    <t>Destructuring</t>
+  </si>
+  <si>
+    <t>Angular</t>
   </si>
 </sst>
 </file>
@@ -874,7 +886,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -904,6 +916,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2148,10 +2163,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD604CB8-1C2B-4FA0-8651-2EB1B3A26933}">
-  <dimension ref="A2:G20"/>
+  <dimension ref="A2:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2159,6 +2174,7 @@
     <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2288,7 +2304,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>207</v>
       </c>
@@ -2301,8 +2317,11 @@
       <c r="F18" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H18" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
@@ -2311,13 +2330,26 @@
       <c r="F19" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="F20" s="1" t="s">
         <v>213</v>
+      </c>
+      <c r="H20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2329,7 +2361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC269C0-0B94-42E6-86B9-E001214CD993}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
